--- a/data/nuclear_power_plants.xlsx
+++ b/data/nuclear_power_plants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e7d08b0af0deca8/Dokumente/GitHub/nuclear_reactors_europe_bubble/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e7d08b0af0deca8/Dokumente/GitHub/ee-nuclear-commissioning/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2059" documentId="8_{4ECEEAE8-B898-4DCC-9308-3DC9137B897A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62C1179E-A2D5-41A2-945A-A6F75ACC2DF2}"/>
+  <xr:revisionPtr revIDLastSave="2063" documentId="8_{4ECEEAE8-B898-4DCC-9308-3DC9137B897A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8094C46B-6AE4-4C83-B0AB-48603E86559B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{6D55CEE1-0BC6-478D-8436-A8A9170D1D5B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6D55CEE1-0BC6-478D-8436-A8A9170D1D5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -894,7 +894,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -985,6 +985,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1303,9 +1325,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68F1D46-54BA-4BF9-89B2-AE08F7D0EB10}">
   <dimension ref="A1:N302"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L139" sqref="L139"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M134" sqref="M134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1398,6 +1420,9 @@
       <c r="L2" s="12">
         <v>28825</v>
       </c>
+      <c r="M2" s="12">
+        <v>28825</v>
+      </c>
       <c r="N2" t="s">
         <v>248</v>
       </c>
@@ -5515,6 +5540,9 @@
       <c r="L125" s="12">
         <v>33076</v>
       </c>
+      <c r="M125" s="2">
+        <v>33076</v>
+      </c>
       <c r="N125" t="s">
         <v>248</v>
       </c>
@@ -5963,38 +5991,40 @@
         <v>31376</v>
       </c>
     </row>
-    <row r="139" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="24" t="s">
+    <row r="139" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="B139" s="24" t="s">
+      <c r="B139" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="C139" s="25">
+      <c r="C139" s="34">
         <v>1</v>
       </c>
-      <c r="D139" s="26" t="s">
+      <c r="D139" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="F139" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="28">
+      <c r="F139" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="38">
         <v>295</v>
       </c>
-      <c r="H139" s="28">
+      <c r="H139" s="38">
         <v>327</v>
       </c>
-      <c r="I139" s="30">
+      <c r="I139" s="39">
         <v>26777</v>
       </c>
-      <c r="J139" s="29"/>
-      <c r="K139" s="29"/>
-      <c r="L139" s="29">
+      <c r="J139" s="40"/>
+      <c r="K139" s="40"/>
+      <c r="L139" s="40">
         <v>33317</v>
       </c>
-      <c r="M139" s="30"/>
-      <c r="N139" s="31" t="s">
+      <c r="M139" s="39">
+        <v>33317</v>
+      </c>
+      <c r="N139" s="36" t="s">
         <v>248</v>
       </c>
     </row>

--- a/data/nuclear_power_plants.xlsx
+++ b/data/nuclear_power_plants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e7d08b0af0deca8/Dokumente/GitHub/ee-nuclear-commissioning/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2063" documentId="8_{4ECEEAE8-B898-4DCC-9308-3DC9137B897A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8094C46B-6AE4-4C83-B0AB-48603E86559B}"/>
+  <xr:revisionPtr revIDLastSave="2066" documentId="8_{4ECEEAE8-B898-4DCC-9308-3DC9137B897A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99EEA568-1C69-4F1A-917E-A52EA0D23692}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6D55CEE1-0BC6-478D-8436-A8A9170D1D5B}"/>
   </bookViews>
@@ -867,18 +867,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -894,7 +888,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -961,28 +955,6 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -995,7 +967,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1003,11 +974,12 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1326,8 +1298,8 @@
   <dimension ref="A1:N302"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M134" sqref="M134"/>
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A196" sqref="A196:XFD197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5991,40 +5963,40 @@
         <v>31376</v>
       </c>
     </row>
-    <row r="139" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="33" t="s">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B139" s="33" t="s">
+      <c r="B139" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C139" s="34">
+      <c r="C139" s="11">
         <v>1</v>
       </c>
-      <c r="D139" s="35" t="s">
+      <c r="D139" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F139" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="38">
+      <c r="F139" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="9">
         <v>295</v>
       </c>
-      <c r="H139" s="38">
+      <c r="H139" s="9">
         <v>327</v>
       </c>
-      <c r="I139" s="39">
+      <c r="I139" s="2">
         <v>26777</v>
       </c>
-      <c r="J139" s="40"/>
-      <c r="K139" s="40"/>
-      <c r="L139" s="40">
+      <c r="J139" s="12"/>
+      <c r="K139" s="12"/>
+      <c r="L139" s="12">
         <v>33317</v>
       </c>
-      <c r="M139" s="39">
+      <c r="M139" s="2">
         <v>33317</v>
       </c>
-      <c r="N139" s="36" t="s">
+      <c r="N139" t="s">
         <v>248</v>
       </c>
     </row>
@@ -6361,7 +6333,7 @@
       <c r="B150" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C150" s="32"/>
+      <c r="C150" s="24"/>
       <c r="D150" t="s">
         <v>202</v>
       </c>
@@ -7950,78 +7922,78 @@
       </c>
       <c r="L195" s="12"/>
     </row>
-    <row r="196" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="24" t="s">
+    <row r="196" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="B196" s="24" t="s">
+      <c r="B196" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="C196" s="25">
+      <c r="C196" s="26">
         <v>3</v>
       </c>
-      <c r="D196" s="26" t="s">
+      <c r="D196" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E196" s="27" t="s">
+      <c r="E196" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="F196" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="G196" s="28">
+      <c r="F196" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G196" s="29">
         <v>440</v>
       </c>
-      <c r="H196" s="28">
+      <c r="H196" s="29">
         <v>471</v>
       </c>
-      <c r="I196" s="29">
+      <c r="I196" s="30">
         <v>31804</v>
       </c>
-      <c r="J196" s="29">
+      <c r="J196" s="30">
         <v>44957</v>
       </c>
-      <c r="K196" s="29">
+      <c r="K196" s="30">
         <v>44957</v>
       </c>
-      <c r="L196" s="29"/>
-      <c r="M196" s="30"/>
-      <c r="N196" s="31" t="s">
+      <c r="L196" s="30"/>
+      <c r="M196" s="31"/>
+      <c r="N196" s="32" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="197" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="24" t="s">
+    <row r="197" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="B197" s="24" t="s">
+      <c r="B197" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="C197" s="25">
+      <c r="C197" s="26">
         <v>4</v>
       </c>
-      <c r="D197" s="26" t="s">
+      <c r="D197" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E197" s="27" t="s">
+      <c r="E197" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="F197" s="27" t="s">
+      <c r="F197" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="G197" s="28">
+      <c r="G197" s="29">
         <v>440</v>
       </c>
-      <c r="H197" s="28">
+      <c r="H197" s="29">
         <v>471</v>
       </c>
-      <c r="I197" s="29">
+      <c r="I197" s="30">
         <v>31804</v>
       </c>
-      <c r="J197" s="29"/>
-      <c r="K197" s="29"/>
-      <c r="L197" s="29"/>
-      <c r="M197" s="30"/>
+      <c r="J197" s="30"/>
+      <c r="K197" s="30"/>
+      <c r="L197" s="30"/>
+      <c r="M197" s="31"/>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
